--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>164.618117468112</v>
+        <v>467.7025185881458</v>
       </c>
       <c r="R2">
-        <v>1481.563057213008</v>
+        <v>4209.322667293311</v>
       </c>
       <c r="S2">
-        <v>0.1979309114748539</v>
+        <v>0.3179957068549116</v>
       </c>
       <c r="T2">
-        <v>0.1979309114748539</v>
+        <v>0.3179957068549116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>254.0967759206702</v>
+        <v>401.1663248126791</v>
       </c>
       <c r="R3">
-        <v>2286.870983286032</v>
+        <v>3610.496923314111</v>
       </c>
       <c r="S3">
-        <v>0.3055168363867499</v>
+        <v>0.2727570709054297</v>
       </c>
       <c r="T3">
-        <v>0.30551683638675</v>
+        <v>0.2727570709054297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>36.76586931862045</v>
+        <v>93.02070072797865</v>
       </c>
       <c r="R4">
-        <v>330.892823867584</v>
+        <v>837.1863065518079</v>
       </c>
       <c r="S4">
-        <v>0.04420596066413861</v>
+        <v>0.06324572202310669</v>
       </c>
       <c r="T4">
-        <v>0.04420596066413862</v>
+        <v>0.0632457220231067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H5">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I5">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J5">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>1.207380466257778</v>
+        <v>1.326342759864889</v>
       </c>
       <c r="R5">
-        <v>10.86642419632</v>
+        <v>11.937084838784</v>
       </c>
       <c r="S5">
-        <v>0.001451710904357949</v>
+        <v>0.0009017939538327295</v>
       </c>
       <c r="T5">
-        <v>0.00145171090435795</v>
+        <v>0.0009017939538327295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N6">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q6">
-        <v>72.151861120101</v>
+        <v>129.8417321227207</v>
       </c>
       <c r="R6">
-        <v>649.366750080909</v>
+        <v>1168.575589104486</v>
       </c>
       <c r="S6">
-        <v>0.08675280616591327</v>
+        <v>0.0882807163627644</v>
       </c>
       <c r="T6">
-        <v>0.08675280616591327</v>
+        <v>0.08828071636276438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.325559</v>
       </c>
       <c r="O7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q7">
         <v>111.3702159231956</v>
@@ -883,10 +883,10 @@
         <v>1002.331943308761</v>
       </c>
       <c r="S7">
-        <v>0.1339075472850031</v>
+        <v>0.07572174433011136</v>
       </c>
       <c r="T7">
-        <v>0.1339075472850031</v>
+        <v>0.07572174433011136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.074479</v>
       </c>
       <c r="I8">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J8">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N8">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q8">
-        <v>16.11442250608133</v>
+        <v>25.82404076473599</v>
       </c>
       <c r="R8">
-        <v>145.029802554732</v>
+        <v>232.4163668826239</v>
       </c>
       <c r="S8">
-        <v>0.0193754028024128</v>
+        <v>0.01755802838441334</v>
       </c>
       <c r="T8">
-        <v>0.0193754028024128</v>
+        <v>0.01755802838441334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>38.074479</v>
       </c>
       <c r="I9">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J9">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N9">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q9">
-        <v>0.5291929531233334</v>
+        <v>0.3682140559113333</v>
       </c>
       <c r="R9">
-        <v>4.76273657811</v>
+        <v>3.313926503202</v>
       </c>
       <c r="S9">
-        <v>0.0006362825985910132</v>
+        <v>0.0002503524875959608</v>
       </c>
       <c r="T9">
-        <v>0.0006362825985910133</v>
+        <v>0.0002503524875959608</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N10">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q10">
-        <v>60.24405063900301</v>
+        <v>115.0723475835956</v>
       </c>
       <c r="R10">
-        <v>542.1964557510271</v>
+        <v>1035.65112825236</v>
       </c>
       <c r="S10">
-        <v>0.072435282563749</v>
+        <v>0.07823886135948425</v>
       </c>
       <c r="T10">
-        <v>0.072435282563749</v>
+        <v>0.07823886135948425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H11">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I11">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J11">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.325559</v>
       </c>
       <c r="O11">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P11">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q11">
-        <v>92.9898802829981</v>
+        <v>98.7019503487622</v>
       </c>
       <c r="R11">
-        <v>836.9089225469829</v>
+        <v>888.3175531388598</v>
       </c>
       <c r="S11">
-        <v>0.1118076919201599</v>
+        <v>0.06710846151493986</v>
       </c>
       <c r="T11">
-        <v>0.1118076919201599</v>
+        <v>0.06710846151493986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H12">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I12">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J12">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N12">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q12">
-        <v>13.45492784806622</v>
+        <v>22.88657850069333</v>
       </c>
       <c r="R12">
-        <v>121.094350632596</v>
+        <v>205.97920650624</v>
       </c>
       <c r="S12">
-        <v>0.01617772195282222</v>
+        <v>0.01556081786728026</v>
       </c>
       <c r="T12">
-        <v>0.01617772195282222</v>
+        <v>0.01556081786728026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H13">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I13">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J13">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N13">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q13">
-        <v>0.4418559212588889</v>
+        <v>0.3263300260577778</v>
       </c>
       <c r="R13">
-        <v>3.97670329133</v>
+        <v>2.93697023452</v>
       </c>
       <c r="S13">
-        <v>0.0005312716885629209</v>
+        <v>0.0002218751090275932</v>
       </c>
       <c r="T13">
-        <v>0.000531271688562921</v>
+        <v>0.0002218751090275932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H14">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I14">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J14">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N14">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O14">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P14">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q14">
-        <v>2.779255710609</v>
+        <v>1.541759948340889</v>
       </c>
       <c r="R14">
-        <v>25.013301395481</v>
+        <v>13.875839535068</v>
       </c>
       <c r="S14">
-        <v>0.00334167723749539</v>
+        <v>0.001048258294723836</v>
       </c>
       <c r="T14">
-        <v>0.00334167723749539</v>
+        <v>0.001048258294723836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H15">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I15">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J15">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.325559</v>
       </c>
       <c r="O15">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P15">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q15">
-        <v>4.289928267838777</v>
+        <v>1.322426430557555</v>
       </c>
       <c r="R15">
-        <v>38.609354410549</v>
+        <v>11.901837875018</v>
       </c>
       <c r="S15">
-        <v>0.005158055657996151</v>
+        <v>0.0008991312016411837</v>
       </c>
       <c r="T15">
-        <v>0.005158055657996152</v>
+        <v>0.0008991312016411836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H16">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I16">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J16">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N16">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O16">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P16">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q16">
-        <v>0.6207199658875555</v>
+        <v>0.3066384829013333</v>
       </c>
       <c r="R16">
-        <v>5.586479692988</v>
+        <v>2.759746346112</v>
       </c>
       <c r="S16">
-        <v>0.0007463313911517855</v>
+        <v>0.0002084866282385648</v>
       </c>
       <c r="T16">
-        <v>0.0007463313911517856</v>
+        <v>0.0002084866282385648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H17">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I17">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J17">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N17">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q17">
-        <v>0.02038426333222222</v>
+        <v>0.004372228208444445</v>
       </c>
       <c r="R17">
-        <v>0.18345836999</v>
+        <v>0.039350053876</v>
       </c>
       <c r="S17">
-        <v>2.450930604203841E-05</v>
+        <v>2.972722498635085E-06</v>
       </c>
       <c r="T17">
-        <v>2.450930604203842E-05</v>
+        <v>2.972722498635085E-06</v>
       </c>
     </row>
   </sheetData>
